--- a/results/20250402/evaluation_emotions_noisy_0.0.xlsx
+++ b/results/20250402/evaluation_emotions_noisy_0.0.xlsx
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.28976</v>
+        <v>0.67239</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0347</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="27">
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.10632</v>
+        <v>0.23274</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0308</v>
+        <v>0.0432</v>
       </c>
     </row>
     <row r="28">
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.25048</v>
+        <v>0.6420400000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03037</v>
+        <v>0.01542</v>
       </c>
     </row>
     <row r="29">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.0658</v>
+        <v>0.08771</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0147</v>
+        <v>0.02748</v>
       </c>
     </row>
     <row r="30">
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.29381</v>
+        <v>0.67228</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03306</v>
+        <v>0.01826</v>
       </c>
     </row>
     <row r="31">
@@ -1672,10 +1672,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.10802</v>
+        <v>0.23444</v>
       </c>
       <c r="I31" t="n">
-        <v>0.03073</v>
+        <v>0.03833</v>
       </c>
     </row>
     <row r="32">
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.25047</v>
+        <v>0.64384</v>
       </c>
       <c r="I32" t="n">
-        <v>0.03022</v>
+        <v>0.009220000000000001</v>
       </c>
     </row>
     <row r="33">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.0658</v>
+        <v>0.09445000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0147</v>
+        <v>0.03298</v>
       </c>
     </row>
     <row r="34">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.32916</v>
+        <v>0.68192</v>
       </c>
       <c r="I34" t="n">
-        <v>0.03974</v>
+        <v>0.01761</v>
       </c>
     </row>
     <row r="35">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.10121</v>
+        <v>0.15345</v>
       </c>
       <c r="I35" t="n">
-        <v>0.02837</v>
+        <v>0.03596</v>
       </c>
     </row>
     <row r="36">
@@ -1873,10 +1873,10 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.3209</v>
+        <v>0.68316</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03715</v>
+        <v>0.01759</v>
       </c>
     </row>
     <row r="37">
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.08767999999999999</v>
+        <v>0.172</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02647</v>
+        <v>0.0386</v>
       </c>
     </row>
     <row r="38">
@@ -1953,10 +1953,10 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.32713</v>
+        <v>0.68192</v>
       </c>
       <c r="I38" t="n">
-        <v>0.04019</v>
+        <v>0.01746</v>
       </c>
     </row>
     <row r="39">
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.09782</v>
+        <v>0.15345</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03194</v>
+        <v>0.03596</v>
       </c>
     </row>
     <row r="40">
@@ -2033,10 +2033,10 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.32135</v>
+        <v>0.6836100000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>0.03891</v>
+        <v>0.01748</v>
       </c>
     </row>
     <row r="41">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.08598</v>
+        <v>0.17032</v>
       </c>
       <c r="I41" t="n">
-        <v>0.02893</v>
+        <v>0.03629</v>
       </c>
     </row>
     <row r="42">
@@ -3073,10 +3073,10 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0.37149</v>
+        <v>0.6561</v>
       </c>
       <c r="I66" t="n">
-        <v>0.02074</v>
+        <v>0.01602</v>
       </c>
     </row>
     <row r="67">
@@ -3112,10 +3112,10 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0.16183</v>
+        <v>0.16871</v>
       </c>
       <c r="I67" t="n">
-        <v>0.0331</v>
+        <v>0.03526</v>
       </c>
     </row>
     <row r="68">
@@ -3153,10 +3153,10 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0.30338</v>
+        <v>0.63214</v>
       </c>
       <c r="I68" t="n">
-        <v>0.02257</v>
+        <v>0.01396</v>
       </c>
     </row>
     <row r="69">
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0.09437</v>
+        <v>0.06244</v>
       </c>
       <c r="I69" t="n">
-        <v>0.02135</v>
+        <v>0.03356</v>
       </c>
     </row>
     <row r="70">
@@ -3233,10 +3233,10 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0.37295</v>
+        <v>0.65565</v>
       </c>
       <c r="I70" t="n">
-        <v>0.02364</v>
+        <v>0.01617</v>
       </c>
     </row>
     <row r="71">
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0.16351</v>
+        <v>0.16871</v>
       </c>
       <c r="I71" t="n">
-        <v>0.03641</v>
+        <v>0.03526</v>
       </c>
     </row>
     <row r="72">
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0.2973</v>
+        <v>0.63282</v>
       </c>
       <c r="I72" t="n">
-        <v>0.03067</v>
+        <v>0.01235</v>
       </c>
     </row>
     <row r="73">
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0.0893</v>
+        <v>0.06748</v>
       </c>
       <c r="I73" t="n">
-        <v>0.02674</v>
+        <v>0.02871</v>
       </c>
     </row>
     <row r="74">
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0.39131</v>
+        <v>0.6761</v>
       </c>
       <c r="I74" t="n">
-        <v>0.03297</v>
+        <v>0.01529</v>
       </c>
     </row>
     <row r="75">
@@ -3432,10 +3432,10 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0.17704</v>
+        <v>0.10798</v>
       </c>
       <c r="I75" t="n">
-        <v>0.03799</v>
+        <v>0.02251</v>
       </c>
     </row>
     <row r="76">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0.35274</v>
+        <v>0.67667</v>
       </c>
       <c r="I76" t="n">
-        <v>0.02985</v>
+        <v>0.01288</v>
       </c>
     </row>
     <row r="77">
@@ -3514,10 +3514,10 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0.13992</v>
+        <v>0.14675</v>
       </c>
       <c r="I77" t="n">
-        <v>0.035</v>
+        <v>0.01914</v>
       </c>
     </row>
     <row r="78">
@@ -3553,10 +3553,10 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0.38883</v>
+        <v>0.67588</v>
       </c>
       <c r="I78" t="n">
-        <v>0.03202</v>
+        <v>0.01577</v>
       </c>
     </row>
     <row r="79">
@@ -3592,10 +3592,10 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>0.17536</v>
+        <v>0.10798</v>
       </c>
       <c r="I79" t="n">
-        <v>0.03817</v>
+        <v>0.02251</v>
       </c>
     </row>
     <row r="80">
@@ -3633,10 +3633,10 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>0.35941</v>
+        <v>0.67655</v>
       </c>
       <c r="I80" t="n">
-        <v>0.02742</v>
+        <v>0.01318</v>
       </c>
     </row>
     <row r="81">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0.13994</v>
+        <v>0.14843</v>
       </c>
       <c r="I81" t="n">
-        <v>0.03295</v>
+        <v>0.01586</v>
       </c>
     </row>
     <row r="82">
@@ -4673,10 +4673,10 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0.28037</v>
+        <v>0.67687</v>
       </c>
       <c r="I106" t="n">
-        <v>0.00903</v>
+        <v>0.01663</v>
       </c>
     </row>
     <row r="107">
@@ -4712,10 +4712,10 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>0.09947</v>
+        <v>0.23613</v>
       </c>
       <c r="I107" t="n">
-        <v>0.01438</v>
+        <v>0.03478</v>
       </c>
     </row>
     <row r="108">
@@ -4753,10 +4753,10 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>0.25149</v>
+        <v>0.64911</v>
       </c>
       <c r="I108" t="n">
-        <v>0.00809</v>
+        <v>0.01978</v>
       </c>
     </row>
     <row r="109">
@@ -4794,10 +4794,10 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>0.05061</v>
+        <v>0.09107999999999999</v>
       </c>
       <c r="I109" t="n">
-        <v>0.01776</v>
+        <v>0.02686</v>
       </c>
     </row>
     <row r="110">
@@ -4833,10 +4833,10 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0.27643</v>
+        <v>0.67653</v>
       </c>
       <c r="I110" t="n">
-        <v>0.00796</v>
+        <v>0.01722</v>
       </c>
     </row>
     <row r="111">
@@ -4872,10 +4872,10 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>0.09778000000000001</v>
+        <v>0.2378</v>
       </c>
       <c r="I111" t="n">
-        <v>0.01349</v>
+        <v>0.0344</v>
       </c>
     </row>
     <row r="112">
@@ -4913,10 +4913,10 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>0.24518</v>
+        <v>0.648</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0105</v>
+        <v>0.01956</v>
       </c>
     </row>
     <row r="113">
@@ -4954,10 +4954,10 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>0.05061</v>
+        <v>0.09278</v>
       </c>
       <c r="I113" t="n">
-        <v>0.01196</v>
+        <v>0.02721</v>
       </c>
     </row>
     <row r="114">
@@ -4993,10 +4993,10 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>0.31837</v>
+        <v>0.69163</v>
       </c>
       <c r="I114" t="n">
-        <v>0.02726</v>
+        <v>0.0131</v>
       </c>
     </row>
     <row r="115">
@@ -5032,10 +5032,10 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>0.08094</v>
+        <v>0.15864</v>
       </c>
       <c r="I115" t="n">
-        <v>0.01139</v>
+        <v>0.03531</v>
       </c>
     </row>
     <row r="116">
@@ -5073,10 +5073,10 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>0.31262</v>
+        <v>0.69072</v>
       </c>
       <c r="I116" t="n">
-        <v>0.02592</v>
+        <v>0.01498</v>
       </c>
     </row>
     <row r="117">
@@ -5114,10 +5114,10 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>0.07421</v>
+        <v>0.18053</v>
       </c>
       <c r="I117" t="n">
-        <v>0.00987</v>
+        <v>0.03975</v>
       </c>
     </row>
     <row r="118">
@@ -5153,10 +5153,10 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>0.31758</v>
+        <v>0.69219</v>
       </c>
       <c r="I118" t="n">
-        <v>0.02463</v>
+        <v>0.01357</v>
       </c>
     </row>
     <row r="119">
@@ -5192,10 +5192,10 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>0.07926</v>
+        <v>0.15864</v>
       </c>
       <c r="I119" t="n">
-        <v>0.00861</v>
+        <v>0.03531</v>
       </c>
     </row>
     <row r="120">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>0.31353</v>
+        <v>0.69151</v>
       </c>
       <c r="I120" t="n">
-        <v>0.02344</v>
+        <v>0.01621</v>
       </c>
     </row>
     <row r="121">
@@ -5274,10 +5274,10 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>0.07084</v>
+        <v>0.18053</v>
       </c>
       <c r="I121" t="n">
-        <v>0.008750000000000001</v>
+        <v>0.03975</v>
       </c>
     </row>
     <row r="122">
@@ -6273,10 +6273,10 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>0.3408</v>
+        <v>0.66654</v>
       </c>
       <c r="I146" t="n">
-        <v>0.02418</v>
+        <v>0.02356</v>
       </c>
     </row>
     <row r="147">
@@ -6312,10 +6312,10 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>0.17025</v>
+        <v>0.19064</v>
       </c>
       <c r="I147" t="n">
-        <v>0.04628</v>
+        <v>0.03682</v>
       </c>
     </row>
     <row r="148">
@@ -6353,10 +6353,10 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>0.2937</v>
+        <v>0.63855</v>
       </c>
       <c r="I148" t="n">
-        <v>0.02182</v>
+        <v>0.01922</v>
       </c>
     </row>
     <row r="149">
@@ -6394,10 +6394,10 @@
         </is>
       </c>
       <c r="H149" t="n">
-        <v>0.08426</v>
+        <v>0.06582</v>
       </c>
       <c r="I149" t="n">
-        <v>0.03044</v>
+        <v>0.01817</v>
       </c>
     </row>
     <row r="150">
@@ -6433,10 +6433,10 @@
         </is>
       </c>
       <c r="H150" t="n">
-        <v>0.3417</v>
+        <v>0.66688</v>
       </c>
       <c r="I150" t="n">
-        <v>0.02351</v>
+        <v>0.02318</v>
       </c>
     </row>
     <row r="151">
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="H151" t="n">
-        <v>0.16687</v>
+        <v>0.18896</v>
       </c>
       <c r="I151" t="n">
-        <v>0.04806</v>
+        <v>0.03608</v>
       </c>
     </row>
     <row r="152">
@@ -6513,10 +6513,10 @@
         </is>
       </c>
       <c r="H152" t="n">
-        <v>0.28344</v>
+        <v>0.64022</v>
       </c>
       <c r="I152" t="n">
-        <v>0.03072</v>
+        <v>0.02175</v>
       </c>
     </row>
     <row r="153">
@@ -6554,10 +6554,10 @@
         </is>
       </c>
       <c r="H153" t="n">
-        <v>0.07915999999999999</v>
+        <v>0.08096</v>
       </c>
       <c r="I153" t="n">
-        <v>0.03019</v>
+        <v>0.01474</v>
       </c>
     </row>
     <row r="154">
@@ -6593,10 +6593,10 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>0.36746</v>
+        <v>0.68287</v>
       </c>
       <c r="I154" t="n">
-        <v>0.02854</v>
+        <v>0.01804</v>
       </c>
     </row>
     <row r="155">
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="H155" t="n">
-        <v>0.16015</v>
+        <v>0.11481</v>
       </c>
       <c r="I155" t="n">
-        <v>0.04542</v>
+        <v>0.04334</v>
       </c>
     </row>
     <row r="156">
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="H156" t="n">
-        <v>0.33281</v>
+        <v>0.68635</v>
       </c>
       <c r="I156" t="n">
-        <v>0.03285</v>
+        <v>0.0186</v>
       </c>
     </row>
     <row r="157">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="H157" t="n">
-        <v>0.12302</v>
+        <v>0.16372</v>
       </c>
       <c r="I157" t="n">
-        <v>0.04458</v>
+        <v>0.04149</v>
       </c>
     </row>
     <row r="158">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="H158" t="n">
-        <v>0.366</v>
+        <v>0.68332</v>
       </c>
       <c r="I158" t="n">
-        <v>0.02783</v>
+        <v>0.0188</v>
       </c>
     </row>
     <row r="159">
@@ -6792,10 +6792,10 @@
         </is>
       </c>
       <c r="H159" t="n">
-        <v>0.16015</v>
+        <v>0.11481</v>
       </c>
       <c r="I159" t="n">
-        <v>0.04542</v>
+        <v>0.04334</v>
       </c>
     </row>
     <row r="160">
@@ -6833,10 +6833,10 @@
         </is>
       </c>
       <c r="H160" t="n">
-        <v>0.33069</v>
+        <v>0.6877</v>
       </c>
       <c r="I160" t="n">
-        <v>0.02953</v>
+        <v>0.01761</v>
       </c>
     </row>
     <row r="161">
@@ -6874,10 +6874,10 @@
         </is>
       </c>
       <c r="H161" t="n">
-        <v>0.11628</v>
+        <v>0.16372</v>
       </c>
       <c r="I161" t="n">
-        <v>0.03947</v>
+        <v>0.04183</v>
       </c>
     </row>
   </sheetData>
